--- a/adjectifs de marque.xlsx
+++ b/adjectifs de marque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmonn\Documents\GitHub\Personnalite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1EEB6-7935-47AB-8526-D3C3E64A979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1FDB49-3644-4C02-ABB6-2A41C43FB6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9077,8 +9077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C41232-60F0-40DB-8777-E793B5192BDB}">
   <dimension ref="A1:R868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="B473" sqref="B473"/>
+    <sheetView tabSelected="1" topLeftCell="A686" workbookViewId="0">
+      <selection activeCell="E706" sqref="E706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
